--- a/spreadsheet/macrofree/redis_resiliency_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.ja.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ゾーン冗長性</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>アベイラビリティーゾーン</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1101,17 +1101,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>固執</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>データの永続性</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>キャッシュデータはメモリに保存されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,12 +1143,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>固執</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>geo 冗長ストレージ</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,12 +1185,12 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>運用管理</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>geo レプリケーション</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ゾーン冗長性</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>固執</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>geo レプリケーション</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>必要なし</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>推奨事項は理解されているが、現在の要件では不要</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>該当なし</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.ja.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>アベイラビリティーゾーン</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
+          <t>Azure Cache for Redis のゾーン冗長を有効にします。Azure Cache for Redis では、Premium レベルと Enterprise レベルでゾーン冗長構成がサポートされています。ゾーン冗長キャッシュでは、同じリージョン内の異なる Azure Availability Zones にノードを配置できます。これにより、データセンターや AZ の停止が単一障害点として排除され、キャッシュの全体的な可用性が向上します。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>データの永続性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
+          <t>Azure Cache for Redis インスタンスのデータ永続化を構成します。キャッシュ データはメモリに格納されるため、まれに複数のノードで計画外の障害が発生すると、すべてのデータがドロップされる可能性があります。データの完全な損失を回避するために、Redis 永続化では、メモリ内データのスナップショットを定期的に取得し、ストレージ アカウントに格納できます。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1143,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>geo 冗長ストレージ</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1157,7 +1165,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>geo レプリケーション</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
+          <t>Premium Azure Cache for Redis インスタンスのパッシブ geo レプリケーションを構成します。geo レプリケーションは、2 つ以上の Azure Cache for Redis インスタンス (通常は 2 つの Azure リージョンにまたがる) をリンクするためのメカニズムです。geo レプリケーションは、主にリージョン間のディザスター リカバリー用に設計されています。2 つの Premium レベルのキャッシュ インスタンスは、プライマリ キャッシュへの読み取りと書き込みを提供する方法で geo レプリケーションを介して接続され、そのデータはセカンダリ キャッシュにレプリケートされます。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>BCとDR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,7 +6100,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
     </row>
